--- a/model/results/mix2_ggpos_h2pos/b_tech.xlsx
+++ b/model/results/mix2_ggpos_h2pos/b_tech.xlsx
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3916,16 +3916,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307722</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999893</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999999893</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999878</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -4208,28 +4208,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.7692307692307696</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307722</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7402,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999999893</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7460,28 +7460,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -7536,28 +7536,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.7692307692307784</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307722</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -10788,28 +10788,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.000000000000026</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -10864,28 +10864,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.7692307692307696</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.000000000000019</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -11505,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -12873,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -13058,7 +13058,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -14061,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -14116,28 +14116,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000005</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -14192,25 +14192,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.7692307692307696</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.000000000000019</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -16049,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -16368,7 +16368,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -16386,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -17216,7 +17216,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307646</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -17228,13 +17228,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999931</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999931</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307647</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -17304,13 +17304,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999999999999932</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9999999999999932</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -17444,28 +17444,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -17520,28 +17520,28 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.7692307692307694</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -18237,7 +18237,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -18389,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -18617,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -19377,7 +19377,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -19453,7 +19453,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -19529,7 +19529,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -20556,16 +20556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20784,16 +20784,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000008</v>
+        <v>0.1746268656716418</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1343283582089586</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -20860,16 +20860,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999961</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999999999996</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1746268656716266</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -21565,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326537</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326536</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5102040816326535</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326537</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326537</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -24036,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000000018</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -24112,16 +24112,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1746268656716418</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1343283582089578</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -24188,16 +24188,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999972</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999999999996</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1746268656716472</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -26352,7 +26352,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26370,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27373,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27428,7 +27428,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1343283582089553</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27440,16 +27440,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1746268656716418</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.134328358208959</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27516,16 +27516,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999999999996</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1746268656716472</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -29680,7 +29680,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -29698,7 +29698,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -30549,7 +30549,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -30625,7 +30625,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -30692,7 +30692,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000000007</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -30701,7 +30701,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307701</v>
+        <v>0.1343283582089553</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -30768,16 +30768,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1746268656716418</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.134328358208959</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -30844,16 +30844,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999971</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999999999996</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.174626865671647</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -33008,7 +33008,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -33856,7 +33856,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307695</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34008,7 +34008,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34020,13 +34020,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -34084,7 +34084,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307701</v>
+        <v>0.1343283582089553</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -34096,16 +34096,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000008</v>
+        <v>0.1746268656716418</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1343283582089586</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -34172,16 +34172,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9999999999999951</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999999999995</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.174626865671647</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -36336,7 +36336,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40512,7 +40512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.769230769230774</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -40533,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -40664,7 +40664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307745</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -40676,7 +40676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -40685,7 +40685,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.1343283582089557</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40752,16 +40752,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.000000000000007</v>
+        <v>0.1746268656716416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40816,7 +40816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1343283582089596</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40828,16 +40828,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999999999999995</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1746268656716516</v>
+        <v>1.000000000000014</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -42992,7 +42992,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -43010,7 +43010,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -43840,7 +43840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -43916,7 +43916,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -44144,7 +44144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -47320,7 +47320,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -47472,7 +47472,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -49666,7 +49666,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -50496,7 +50496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -50517,7 +50517,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -50572,7 +50572,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -50648,7 +50648,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8817003149128698</v>
+        <v>0.575616664722758</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -50724,13 +50724,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -50800,28 +50800,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -52900,7 +52900,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -52976,7 +52976,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.000000000000001</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -52994,7 +52994,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -53204,7 +53204,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -53824,7 +53824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53845,7 +53845,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -53900,7 +53900,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -53912,16 +53912,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5337301359957088</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -53976,7 +53976,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -53988,16 +53988,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999997</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999997</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999878</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -54052,13 +54052,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -54128,13 +54128,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -54149,7 +54149,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -56322,7 +56322,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -57152,7 +57152,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -57173,7 +57173,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -57228,7 +57228,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -57240,16 +57240,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5337301359957088</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -57304,7 +57304,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -57316,16 +57316,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999878</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -57380,25 +57380,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -57456,13 +57456,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -57477,7 +57477,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -59650,7 +59650,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -60480,7 +60480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -60492,16 +60492,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -60556,7 +60556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -60568,16 +60568,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -60632,7 +60632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -60644,16 +60644,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999878</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -60708,28 +60708,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -60784,28 +60784,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -61425,7 +61425,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -61501,7 +61501,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -61653,7 +61653,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -61881,7 +61881,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -62641,7 +62641,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -62717,7 +62717,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -62793,7 +62793,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -62978,7 +62978,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
@@ -63808,7 +63808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -63820,16 +63820,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.000000000000015</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -63884,7 +63884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -63905,7 +63905,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -63960,7 +63960,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307704</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -63972,16 +63972,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999878</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -64036,28 +64036,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7692307692307697</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.000000000000008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -64112,28 +64112,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.000000000000005</v>
+        <v>0.7692307692307696</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -64753,7 +64753,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326686</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -64829,7 +64829,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -64981,7 +64981,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -65209,7 +65209,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -65969,7 +65969,7 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5102040816326625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -66045,7 +66045,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -66121,7 +66121,7 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5102040816326532</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -66306,7 +66306,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999581</v>
       </c>
     </row>
     <row r="35">
